--- a/template/traductions.xlsx
+++ b/template/traductions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/projets/techinfo/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/techinfo/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288D97A-9B5B-6946-8AEA-C92E0F5B81E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109DF083-FA06-A640-836F-428CD4B6A015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="450">
   <si>
     <t>Abréviation</t>
   </si>
@@ -1381,6 +1381,12 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>vibe coding</t>
+  </si>
+  <si>
+    <t>programmation au ressenti (selon [wikipedia](https://fr.wikipedia.org/wiki/Vibe_coding))</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1507,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B000A265-4734-4705-A8CB-388496D9FB23}" name="Tableau1" displayName="Tableau1" ref="A1:B206" totalsRowShown="0">
-  <autoFilter ref="A1:B206" xr:uid="{E8626E43-E547-4602-8E58-02340B43C29A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B206">
-    <sortCondition ref="A1:A206"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B000A265-4734-4705-A8CB-388496D9FB23}" name="Tableau1" displayName="Tableau1" ref="A1:B207" totalsRowShown="0">
+  <autoFilter ref="A1:B207" xr:uid="{E8626E43-E547-4602-8E58-02340B43C29A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B207">
+    <sortCondition ref="A1:A207"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{21E3DEAF-5916-444D-B940-03B2A894535D}" name="Anglais"/>
@@ -1779,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1984,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78415A45-753B-4163-86DD-B362E2E59C19}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3573,73 +3579,81 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>332</v>
+        <v>448</v>
       </c>
       <c r="B198" t="s">
-        <v>333</v>
+        <v>449</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="B199" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B200" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="B201" t="s">
-        <v>283</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="B202" t="s">
-        <v>132</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="B204" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>302</v>
+      </c>
+      <c r="B206" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>274</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3652,17 +3666,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f16cdf5c-c767-4e38-8246-8b9cd54bb89c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3efb0862-1bd8-48fc-a816-1d5b2205d408" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B72CE0C574CAA8469F823F1AF7DC24C6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a58803545944c63d7e1b6e88246e7e50">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f16cdf5c-c767-4e38-8246-8b9cd54bb89c" xmlns:ns3="3efb0862-1bd8-48fc-a816-1d5b2205d408" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a765b219c194e01d1329c0f5b7ec9f6a" ns2:_="" ns3:_="">
     <xsd:import namespace="f16cdf5c-c767-4e38-8246-8b9cd54bb89c"/>
@@ -3873,6 +3876,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f16cdf5c-c767-4e38-8246-8b9cd54bb89c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3efb0862-1bd8-48fc-a816-1d5b2205d408" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3883,23 +3897,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87813676-418E-4202-A45F-360E5139C52B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3efb0862-1bd8-48fc-a816-1d5b2205d408"/>
-    <ds:schemaRef ds:uri="f16cdf5c-c767-4e38-8246-8b9cd54bb89c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46716A47-EA71-4D74-9BC3-D7C2F3A016D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3918,6 +3915,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87813676-418E-4202-A45F-360E5139C52B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3efb0862-1bd8-48fc-a816-1d5b2205d408"/>
+    <ds:schemaRef ds:uri="f16cdf5c-c767-4e38-8246-8b9cd54bb89c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4DC8E1B-AA03-48A5-AE17-D0207628491A}">
   <ds:schemaRefs>
